--- a/Game notes.xlsx
+++ b/Game notes.xlsx
@@ -16,6 +16,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +348,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="112.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Game notes.xlsx
+++ b/Game notes.xlsx
@@ -19,18 +19,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Screen song</t>
+  </si>
+  <si>
+    <t>Plays on the start screen and on end screen</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Level song</t>
+  </si>
+  <si>
+    <t>Plays on level start, loops until game space changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fly damage </t>
+  </si>
+  <si>
+    <t>Plays when fly is damaged</t>
+  </si>
+  <si>
+    <t>Dummy dammage</t>
+  </si>
+  <si>
+    <t>Plays when dummy is damaged</t>
+  </si>
+  <si>
+    <t>Boss damage</t>
+  </si>
+  <si>
+    <t>Plays when boss is damaged</t>
+  </si>
+  <si>
+    <t>Button sound</t>
+  </si>
+  <si>
+    <t>Plays when button is pressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windmill ambience </t>
+  </si>
+  <si>
+    <t>Plays when near windmill</t>
   </si>
 </sst>
 </file>
@@ -348,14 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="112.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -364,13 +410,111 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Game notes.xlsx
+++ b/Game notes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Type</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Plays when near windmill</t>
+  </si>
+  <si>
+    <t>Death sound</t>
+  </si>
+  <si>
+    <t>Plays when player runs out of health</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +523,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
